--- a/02 需求/乐窝/需求列表..xlsx
+++ b/02 需求/乐窝/需求列表..xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="16005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
     <sheet name="手机端" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PC!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手机端!$A$1:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PC!$A$1:$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手机端!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="181">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,265 +134,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图搜索，缩放之后，中心点消失</t>
+    <t>搜索时，当没有输入关键词时，默认显示以化龙桥为中心，缩放等级为？的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋托管，提交托管申请后，蒙板不消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定房间修改为自动计算定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心增加我的管家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加订单确认页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户确认付款的产品，产品名称，图片，价格，数量，总价，确认付款按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城订单信息完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电煤导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索时，当没有输入关键词时，默认显示以化龙桥为中心，缩放等级为？的地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋托管，提交托管申请后，蒙板不消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定房间修改为自动计算定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心增加我的管家信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋与管家绑定功能</t>
+  </si>
+  <si>
+    <t>需求修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页和各个房屋页面的seo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面，户型选择后，取消，搜索结果不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间展示图上，如果没有上传视频的房源，请隐藏播放按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间展示图</t>
+  </si>
+  <si>
+    <t>房间展示图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情页面，增加导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台--&gt;热门推荐，推荐房间可以推荐已出租的房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以选择已租房源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以显示，点击，正确加载区域信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常使用，点击准确响应，不能有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求显示，对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与数据正确匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示，弹出层正确表达内容，弹出层关闭要测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按提供的布局调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示，数据加载正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程顺利，平滑，中间数据不能出错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据准确，这个应该是bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求导入，显示，数据不能有错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已租蒙版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页房间展示图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加商品详细页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加订单确认页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户确认付款的产品，产品名称，图片，价格，数量，总价，确认付款按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城订单信息完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电煤导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求修改</t>
-  </si>
-  <si>
-    <t>需求修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页和各个房屋页面的seo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页面，户型选择后，取消，搜索结果不刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间展示图上，如果没有上传视频的房源，请隐藏播放按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间展示图</t>
-  </si>
-  <si>
-    <t>房间展示图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间详情页面，增加导航栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台--&gt;热门推荐，推荐房间可以推荐已出租的房子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以选择已租房源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以显示，点击，正确加载区域信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常使用，点击准确响应，不能有bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按要求显示，对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与数据正确匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示，弹出层正确表达内容，弹出层关闭要测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按提供的布局调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示，数据加载正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程顺利，平滑，中间数据不能出错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据准确，这个应该是bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按要求导入，显示，数据不能有错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准确显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已租蒙版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页房间展示图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 显示管家图片，姓名，联系方式
-2. 如果没有租房，隐藏管家信息板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,34 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间展示图上，如果没有上传视频的房源，请隐藏播放按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态修改功能正确，支付回馈一定要准确。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,46 +382,6 @@
   </si>
   <si>
     <t>显示商品名称，图片（多图），商品价格，购买按钮，兑换按钮，商品详细描述（图文）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加订单确认页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户确认付款的产品，产品名称，图片，价格，数量，总价，确认付款按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索增加区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.从后台上传图片，限制图片尺寸，不限制数量，前台轮播显示六张
 2.每张图片可编辑链接，图片title，alt
 3.增加排序字段，用户自己填写（1～6）
@@ -605,18 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>样式确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页滚动广告图与下方的小圆点不匹配，图片只有6张下方有12个小圆点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,65 +501,12 @@
   </si>
   <si>
     <t>视频关闭按钮，太小，无法点中，修改增大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页房间信息显示价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在房间展示的右下角显示房间价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.未出租房间头像为底色图片
 2.已出租房间头像为先用的卡通头像，男租客显示小男孩，女租客显示小女孩。（若有多个租客，以后台绑定房间的租客为准）
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图缩放后，再次获取中心点位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页滚动广告图增加左右剪头图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自动播放，箭头样式确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机版点击视频后，没有关闭按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>手机版房屋详细页面无视频播放按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>？？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 增加订单状态，未付款，已付款（用户完成支付，自动修改为已付款），已发货，已完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,6 +595,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>显示商品名称，图片（多图），商品价格，购买按钮，兑换按钮，商品详细描述（图文）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以查看自己的交租缴费记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板以参考附件为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.以表格的形式显示房间费用
+2.房间费用包括：水电气、物管费、公摊费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加区域搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在窄屏显示时不会显示上一屏下一屏箭头图标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.区域搜索可选项为重庆主城九区
+2.加在搜索选项“户型”上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.所有后台的列表，请修改成安id倒序排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 显示管家图片，姓名，联系方式
+2. 如果没有租房，隐藏管家信息板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1.在个人中心增加用户订单信息。
 2.订单信息包括：订单下单时间，产品名称，图片，实付金额，订单类型（购买，兑换），订单状态显示
 3.以订单列表的形式呈现
@@ -780,10 +641,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>个人中心</t>
+    <t>1.增加订单状态包括：待发货，已发货，已完成
+2. 后台订单状态可以修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,42 +654,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.增加订单状态包括：待发货，已发货，已完成
-2. 后台订单状态可以修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示商品名称，图片（多图），商品价格，购买按钮，兑换按钮，商品详细描述（图文）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以查看自己的交租缴费记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入模板以参考附件为准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.以表格的形式显示房间费用
-2.房间费用包括：水电气、物管费、公摊费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加区域搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在窄屏显示时不会显示上一屏下一屏箭头图标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.区域搜索可选项为重庆主城九区
-2.加在搜索选项“户型”上面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.所有后台的列表，请修改成安id倒序排列</t>
+    <t>房屋信中增加选择管家功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图搜索，缩放之后，中心点消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图缩放后，再次获取中心点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页滚动广告图与下方的小圆点不匹配，图片只有6张下方有12个小圆点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页滚动广告图增加左右剪头图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和PC端箭头样式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机版房屋详细页面无视频播放按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机版点击视频后，没有关闭按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索增加区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,11 +751,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页房间信息显示价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在房间展示的右下角显示房间价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋托管，提交托管申请后，蒙板不消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间展示图上，如果没有上传视频的房源，请隐藏播放按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人中心商城订单，增加状态属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人中心内容确定，</t>
+    <t>1. 增加订单状态，未付款，已付款（用户完成支付，自动修改为已付款），已发货，已完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态修改功能正确，支付回馈一定要准确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 显示管家图片，姓名，联系方式
+2. 如果没有租房，隐藏管家信息板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加商品详细页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加订单确认页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户确认付款的产品，产品名称，图片，价格，数量，总价，确认付款按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考附件</t>
+  </si>
+  <si>
+    <t>参考附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频后台文本框输入：http://yuntv.letv.com/bcloud.html?uu=6mgaqg1zfo&amp;amp;vu=f0711b5e52&amp;amp;auto_play=1&amp;amp;gpcflag=1&amp;amp;width=620&amp;amp;height=380
+前台直接用iframe格式嵌入：&lt;iframe src=“后台填写地址” width=“620” height=“380” frameborder=“0” marginwidth=“0” marginheight=“0”&gt;&lt;/iframe&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改视频展示方式，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>iframe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嵌入方式来实现</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,14 +942,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.35"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -937,8 +956,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,12 +981,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,32 +1111,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1407,15 +1425,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
@@ -1427,7 +1444,7 @@
     <col min="13" max="13" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1447,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1456,82 +1473,82 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="118.5" hidden="1" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="81">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="40.5">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
+      <c r="B4" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1539,27 +1556,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="40.5">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1567,27 +1582,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="162">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="162" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1595,27 +1608,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="67.5">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1623,27 +1634,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="40.5">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="5" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1651,27 +1660,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="81">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="6"/>
@@ -1679,22 +1686,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -1703,27 +1708,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="27">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1731,81 +1734,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>89</v>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>49</v>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1813,41 +1816,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="94.5" hidden="1">
+    <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -1856,16 +1859,16 @@
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1873,25 +1876,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="27" hidden="1">
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1908,16 +1911,16 @@
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="27" hidden="1">
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1928,22 +1931,22 @@
         <v>23</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="81" hidden="1">
+    <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1954,66 +1957,66 @@
         <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="27" hidden="1">
+    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="27" hidden="1">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="27" hidden="1">
+    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2024,74 +2027,74 @@
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="108">
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="27" hidden="1">
+    <row r="26" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2101,245 +2104,257 @@
       <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="27">
+    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="E27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
+      <c r="F27" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="27" hidden="1">
+    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="12"/>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="27">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
+    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>169</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="F31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="B32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="E39" s="2"/>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="房间定金"/>
-        <filter val="房间详情"/>
-        <filter val="房间展示图"/>
-        <filter val="个人中心"/>
-        <filter val="管家"/>
-        <filter val="商城"/>
-        <filter val="视频"/>
-        <filter val="搜索"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="新需求"/>
-        <filter val="需求修改"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I39">
     <sortState ref="A2:I48">
       <sortCondition ref="B2:B48" customList="seo，房间详情，房间展示图，个人中心商城，搜索， 权限管理，手机端"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1"/>
@@ -2360,21 +2375,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2406,429 +2420,444 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="27" hidden="1">
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A17" si="0" xml:space="preserve"> A2 + 1</f>
+        <f t="shared" ref="A3:A18" si="0" xml:space="preserve"> A2 + 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>133</v>
+      <c r="B3" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>133</v>
+      <c r="B4" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>133</v>
+      <c r="B5" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="27">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>132</v>
+      <c r="B6" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>136</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>133</v>
+      <c r="B7" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" hidden="1">
+    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" s="21" customFormat="1">
+      <c r="F8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>133</v>
+      <c r="B10" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="40.5">
+    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>140</v>
+      <c r="B11" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>136</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>133</v>
+      <c r="B12" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" hidden="1">
+      <c r="G12" s="5"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>133</v>
+      <c r="B13" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5">
+        <v>33</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>96</v>
+      <c r="B14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" s="21" customFormat="1" ht="45">
+        <v>136</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="21" customFormat="1" ht="22.5">
+      <c r="B15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="22.5">
+      <c r="B16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="B17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J17">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="新需求"/>
-        <filter val="需求修改"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J19"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/02 需求/乐窝/需求列表..xlsx
+++ b/02 需求/乐窝/需求列表..xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\乐窝\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="16005"/>
   </bookViews>
@@ -19,9 +14,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PC!$A$1:$I$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手机端!$A$1:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="182">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户可以查看自己的交租缴费记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入模板以参考附件为准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,15 +868,23 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以查看自己的交租缴费记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1127,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1151,6 +1156,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1170,7 +1243,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1417,22 +1490,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
@@ -1444,7 +1517,7 @@
     <col min="13" max="13" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1473,10 +1546,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="118.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1501,8 +1577,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="81">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1527,8 +1606,11 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1555,8 +1637,11 @@
       <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1581,8 +1666,11 @@
       <c r="J5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="162">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1607,8 +1695,11 @@
       <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="67.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1633,8 +1724,11 @@
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1659,8 +1753,11 @@
       <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="K8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="81">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1685,8 +1782,11 @@
       <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1707,8 +1807,11 @@
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="K10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="27">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1733,8 +1836,11 @@
       <c r="J11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1759,8 +1865,11 @@
       <c r="J12" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="K12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="27">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1787,8 +1896,11 @@
       <c r="J13" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="K13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="81">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1815,8 +1927,11 @@
       <c r="J14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="K14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="94.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1841,8 +1956,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1867,8 +1985,11 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1879,7 +2000,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
@@ -1893,8 +2014,11 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1920,7 +2044,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="27">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1931,7 +2055,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>9</v>
@@ -1945,8 +2069,11 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="K19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="81">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1972,7 +2099,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="27">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1980,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
@@ -1994,7 +2121,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2016,7 +2143,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2042,7 +2169,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="108">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2050,10 +2177,10 @@
         <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
@@ -2068,7 +2195,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2079,7 +2206,7 @@
         <v>32</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>6</v>
@@ -2094,7 +2221,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="27">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2116,7 +2243,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="27">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2139,8 +2266,11 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2162,16 +2292,16 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="135">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
@@ -2184,7 +2314,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="27">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2192,10 +2322,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>9</v>
@@ -2210,7 +2340,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2221,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>6</v>
@@ -2236,7 +2366,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="54.75" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2247,7 +2377,7 @@
         <v>106</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -2262,7 +2392,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2288,7 +2418,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2314,7 +2444,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2322,10 +2452,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -2338,12 +2468,12 @@
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="E40" s="2"/>
     </row>
   </sheetData>
@@ -2374,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2382,13 +2512,13 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,31 +2550,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A18" si="0" xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -2453,119 +2583,119 @@
         <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="18" customFormat="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2577,136 +2707,136 @@
         <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="17"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="27">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="40.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>33</v>
@@ -2715,7 +2845,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="27">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2724,63 +2854,63 @@
         <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="67.5">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="18" customFormat="1" ht="27">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>47</v>
@@ -2789,25 +2919,25 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>73</v>
@@ -2817,35 +2947,35 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="18" customFormat="1">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>

--- a/02 需求/乐窝/需求列表..xlsx
+++ b/02 需求/乐窝/需求列表..xlsx
@@ -1125,14 +1125,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1490,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1502,7 +1502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1577,7 +1577,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1637,7 +1637,7 @@
       <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="J5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>115</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>118</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5" t="s">
         <v>95</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="J11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="J12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="J13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="J14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2120,6 +2120,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
+      <c r="K21" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="27">
       <c r="A22" s="4">
@@ -2142,6 +2145,9 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
+      <c r="K22" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="27">
       <c r="A23" s="4">
@@ -2242,6 +2248,9 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
+      <c r="K26" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="27">
       <c r="A27" s="4">
@@ -2266,7 +2275,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2392,7 +2401,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2418,7 +2427,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2443,8 +2452,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1">
+      <c r="K34" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2468,12 +2480,12 @@
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="E40" s="2"/>
     </row>
   </sheetData>

--- a/02 需求/乐窝/需求列表..xlsx
+++ b/02 需求/乐窝/需求列表..xlsx
@@ -1490,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,8 +1501,8 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2098,6 +2098,9 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="27">
       <c r="A21" s="4">
@@ -2200,6 +2203,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="4">

--- a/02 需求/乐窝/需求列表..xlsx
+++ b/02 需求/乐窝/需求列表..xlsx
@@ -1061,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,6 +1133,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1501,8 +1504,8 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2177,6 +2180,9 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="108">
       <c r="A24" s="4">
@@ -2232,6 +2238,9 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="27">
       <c r="A26" s="4">
@@ -2306,6 +2315,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
+      <c r="K28" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="135">
       <c r="A29" s="4"/>
@@ -2328,6 +2340,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
+      <c r="K29" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="27">
       <c r="A30" s="4">
@@ -2354,6 +2369,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="4">
@@ -2380,6 +2398,9 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="13"/>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="54.75" customHeight="1">
       <c r="A32" s="4">
@@ -2406,6 +2427,9 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="4">
@@ -2432,6 +2456,9 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="4">
@@ -2485,6 +2512,9 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
